--- a/2019/武汉店/99 项目管理/WBS_Levi‘s CMS System SI_(CN-WH)_20190821.xlsx
+++ b/2019/武汉店/99 项目管理/WBS_Levi‘s CMS System SI_(CN-WH)_20190821.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="625"/>
+    <workbookView xWindow="4320" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="625"/>
   </bookViews>
   <sheets>
     <sheet name="WBS for Sibuya" sheetId="41" r:id="rId1"/>
@@ -1499,10 +1499,6 @@
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
-    <phoneticPr fontId="24" type="noConversion"/>
-  </si>
-  <si>
     <t>1、2019\武汉店\04 基本设计\Levis WH CMS0726.pdf
 (LCD 49寸*4 43寸*8 共12台)</t>
     <phoneticPr fontId="24" type="noConversion"/>
@@ -1641,6 +1637,11 @@
     <t>1、2019\武汉店\05 系统集成\LCD信息\2X2 43寸效果图1.jpg；2X2 43寸效果图2.jpg；1X1 49寸效果图.jpg
 2、2019\武汉店\05 系统集成\LCD信息\2X2 43寸效果图2.jpg
 3、2019\武汉店\05 系统集成\LCD信息\1X1 49寸效果图.jpg</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、2019\武汉店\99 项目管理\B+C两面钩型屏-钣金箱体排布图-2019-08-14.dwg
+2、2019\武汉店\99 项目管理\B1-B3钩型屏效果图1.jpg</t>
     <phoneticPr fontId="24" type="noConversion"/>
   </si>
 </sst>
@@ -5299,9 +5300,9 @@
   <dimension ref="A1:BG127"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="P25" sqref="P25"/>
+      <selection pane="bottomLeft" activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6"/>
@@ -7593,7 +7594,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:59" ht="16.8">
+    <row r="16" spans="1:59" ht="39.6">
       <c r="A16" s="162">
         <v>1</v>
       </c>
@@ -7622,7 +7623,7 @@
       <c r="N16" s="168"/>
       <c r="O16" s="169"/>
       <c r="P16" s="234" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="Q16" s="130"/>
       <c r="R16" s="131" t="str">
@@ -8394,7 +8395,7 @@
         <v>1</v>
       </c>
       <c r="P20" s="234" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q20" s="130"/>
       <c r="R20" s="131" t="str">
@@ -8588,7 +8589,7 @@
         <v>1</v>
       </c>
       <c r="P21" s="234" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q21" s="130"/>
       <c r="R21" s="131" t="str">
@@ -9138,7 +9139,7 @@
         <v>1</v>
       </c>
       <c r="P24" s="234" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q24" s="130"/>
       <c r="R24" s="131" t="str">
@@ -10088,7 +10089,7 @@
         <v>1</v>
       </c>
       <c r="P29" s="234" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q29" s="130"/>
       <c r="R29" s="131" t="str">
@@ -10278,7 +10279,7 @@
         <v>0.5</v>
       </c>
       <c r="P30" s="234" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q30" s="130"/>
       <c r="R30" s="131" t="str">
@@ -10468,7 +10469,7 @@
         <v>1</v>
       </c>
       <c r="P31" s="234" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q31" s="130"/>
       <c r="R31" s="131" t="str">
@@ -13570,7 +13571,7 @@
       <c r="N49" s="168"/>
       <c r="O49" s="169"/>
       <c r="P49" s="286" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q49" s="130"/>
       <c r="R49" s="131" t="str">
@@ -15206,7 +15207,7 @@
         <v>259</v>
       </c>
       <c r="H58" s="232" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I58" s="166"/>
       <c r="J58" s="166"/>
@@ -15216,7 +15217,7 @@
       <c r="N58" s="168"/>
       <c r="O58" s="169"/>
       <c r="P58" s="289" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q58" s="130"/>
       <c r="R58" s="131" t="str">
@@ -15764,7 +15765,7 @@
       <c r="N61" s="168"/>
       <c r="O61" s="169"/>
       <c r="P61" s="293" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q61" s="130"/>
       <c r="R61" s="131" t="str">
@@ -17428,7 +17429,7 @@
       <c r="N70" s="168"/>
       <c r="O70" s="169"/>
       <c r="P70" s="286" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q70" s="130"/>
       <c r="R70" s="131">
@@ -17980,7 +17981,7 @@
       <c r="N73" s="168"/>
       <c r="O73" s="169"/>
       <c r="P73" s="286" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q73" s="130"/>
       <c r="R73" s="131">
@@ -19258,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="P80" s="293" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q80" s="130"/>
       <c r="R80" s="131" t="str">
@@ -20228,7 +20229,7 @@
         <v>0.6</v>
       </c>
       <c r="P85" s="234" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q85" s="130"/>
       <c r="R85" s="131">
@@ -20618,7 +20619,7 @@
       <c r="N87" s="168"/>
       <c r="O87" s="169"/>
       <c r="P87" s="286" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q87" s="130"/>
       <c r="R87" s="131" t="str">
@@ -20992,7 +20993,7 @@
       <c r="N89" s="168"/>
       <c r="O89" s="169"/>
       <c r="P89" s="286" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q89" s="130"/>
       <c r="R89" s="131" t="str">
